--- a/TextoyDatosNumericos.xlsx
+++ b/TextoyDatosNumericos.xlsx
@@ -76,7 +76,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$$-409]#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -126,16 +126,16 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,10 +420,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:L16"/>
+  <dimension ref="A2:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,36 +434,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>43101</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>43132</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>43160</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>43191</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>43221</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <v>43252</v>
       </c>
       <c r="H4" t="s">
@@ -477,31 +477,31 @@
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>700</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>700</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>700</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>700</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>700</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>700</v>
       </c>
-      <c r="H5" s="3">
-        <f>SUM(B5:G5)</f>
-        <v>4200</v>
-      </c>
-      <c r="J5" s="6">
+      <c r="H5" s="2">
+        <f>SUM(C5:G5)</f>
+        <v>3500</v>
+      </c>
+      <c r="J5" s="5">
         <f>H5/$H$15</f>
-        <v>3.90625E-2</v>
+        <v>3.2765399737876802E-2</v>
       </c>
       <c r="L5" t="s">
         <v>14</v>
@@ -511,295 +511,311 @@
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>4200</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>4500</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>5200</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>6000</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>4000</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>6000</v>
       </c>
-      <c r="H6" s="3">
-        <f t="shared" ref="H6:H14" si="0">SUM(B6:G6)</f>
+      <c r="H6" s="2">
+        <f>SUM(B6:G6)</f>
         <v>29900</v>
       </c>
-      <c r="J6" s="6">
-        <f t="shared" ref="J6:J13" si="1">H6/$H$15</f>
-        <v>0.27808779761904762</v>
+      <c r="J6" s="5">
+        <f t="shared" ref="J6:J13" si="0">H6/$H$15</f>
+        <v>0.27991012918929037</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>4300</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>4300</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>4300</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>4300</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>4300</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>4300</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
+        <f t="shared" ref="H7:H14" si="1">SUM(B7:G7)</f>
+        <v>25800</v>
+      </c>
+      <c r="J7" s="5">
         <f t="shared" si="0"/>
-        <v>25800</v>
-      </c>
-      <c r="J7" s="6">
-        <f t="shared" si="1"/>
-        <v>0.23995535714285715</v>
+        <v>0.24152780378206329</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>200</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>200</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>200</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>250</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>220</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>250</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
+        <f t="shared" si="1"/>
+        <v>1320</v>
+      </c>
+      <c r="J8" s="5">
         <f t="shared" si="0"/>
-        <v>1320</v>
-      </c>
-      <c r="J8" s="6">
-        <f t="shared" si="1"/>
-        <v>1.2276785714285714E-2</v>
+        <v>1.2357236472570679E-2</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>3000</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>2000</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>2300</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>3500</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>1800</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>3000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
+        <f t="shared" si="1"/>
+        <v>15600</v>
+      </c>
+      <c r="J9" s="5">
         <f t="shared" si="0"/>
-        <v>15600</v>
-      </c>
-      <c r="J9" s="6">
-        <f t="shared" si="1"/>
-        <v>0.14508928571428573</v>
+        <v>0.14604006740310804</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="4">
-        <v>1000</v>
-      </c>
-      <c r="C10" s="4">
-        <v>1000</v>
-      </c>
-      <c r="D10" s="4">
-        <v>1000</v>
-      </c>
-      <c r="E10" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F10" s="4">
-        <v>1000</v>
-      </c>
-      <c r="G10" s="4">
-        <v>1000</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="B10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="1"/>
+        <v>6000</v>
+      </c>
+      <c r="J10" s="5">
         <f t="shared" si="0"/>
-        <v>6000</v>
-      </c>
-      <c r="J10" s="6">
-        <f t="shared" si="1"/>
-        <v>5.5803571428571432E-2</v>
+        <v>5.6169256693503089E-2</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="4">
-        <v>1000</v>
-      </c>
-      <c r="C11" s="4">
-        <v>1000</v>
-      </c>
-      <c r="D11" s="4">
-        <v>1000</v>
-      </c>
-      <c r="E11" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F11" s="4">
-        <v>1000</v>
-      </c>
-      <c r="G11" s="4">
-        <v>1000</v>
-      </c>
-      <c r="H11" s="3">
+      <c r="B11" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="1"/>
+        <v>6000</v>
+      </c>
+      <c r="J11" s="5">
         <f t="shared" si="0"/>
-        <v>6000</v>
-      </c>
-      <c r="J11" s="6">
-        <f t="shared" si="1"/>
-        <v>5.5803571428571432E-2</v>
+        <v>5.6169256693503089E-2</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>1500</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>1300</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>1500</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>2000</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>1400</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <v>2000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="2">
+        <f t="shared" si="1"/>
+        <v>9700</v>
+      </c>
+      <c r="J12" s="5">
         <f t="shared" si="0"/>
-        <v>9700</v>
-      </c>
-      <c r="J12" s="6">
-        <f t="shared" si="1"/>
-        <v>9.0215773809523808E-2</v>
+        <v>9.0806964987829988E-2</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>1500</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>1500</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>1500</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>1500</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>1500</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <v>1500</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>9000</v>
+      </c>
+      <c r="J13" s="5">
         <f t="shared" si="0"/>
-        <v>9000</v>
-      </c>
-      <c r="J13" s="6">
+        <v>8.4253885040254634E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <f>SUM(B5:B13)</f>
+        <v>17400</v>
+      </c>
+      <c r="H14" s="2">
         <f t="shared" si="1"/>
-        <v>8.3705357142857137E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H14" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17400</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <f>SUM(B5:B13)</f>
         <v>17400</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <f>SUM(C5:C13)</f>
         <v>16500</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <f t="shared" ref="D15:H15" si="2">SUM(D5:D13)</f>
         <v>17700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <f t="shared" si="2"/>
         <v>20250</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <f t="shared" si="2"/>
         <v>15920</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="2">
         <f t="shared" si="2"/>
         <v>19750</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="2">
         <f t="shared" si="2"/>
-        <v>107520</v>
+        <v>106820</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <f>B5+B6+B7+B8+B9+B10+B11+B12+B13</f>
+        <v>17400</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="2">
+        <f>SUM(B5:B13,C5:C13)</f>
+        <v>33900</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
+        <f>SUM(B16:B17)</f>
         <v>17400</v>
       </c>
     </row>
